--- a/template.xlsx
+++ b/template.xlsx
@@ -5,36 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bancolombia-my.sharepoint.com/personal/juliavar_bancolombia_com_co/Documents/Workspace/FICsAppStreamLit/VersionEntregable/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bancolombia-my.sharepoint.com/personal/juliavar_bancolombia_com_co/Documents/Workspace/FICsAppStreamLit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="69" documentId="8_{73B02B25-ED4D-4123-BE0E-6F97F4C300DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D281087-ACEF-4997-98D9-53053C761E55}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="8_{785E9AE7-354D-4927-B094-4B8E5AEE8CE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{943B054C-ED31-4094-A375-BB748D747505}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D4377550-1B1B-4984-9F15-A74446D00387}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>INFORME MENSUAL DE COMPETENCIA FONDOS DE INVERSIÓN COLECTIVA</t>
   </si>
@@ -45,19 +31,38 @@
     <t>Fondos</t>
   </si>
   <si>
-    <t>ABREBIATURAS</t>
+    <t>ABREVIATURAS</t>
+  </si>
+  <si>
+    <t>SN - SENTENCIAS NACION</t>
+  </si>
+  <si>
+    <t>PP - PACTO DE PERMANENCIA</t>
+  </si>
+  <si>
+    <t>RF - RENTA FIJA</t>
+  </si>
+  <si>
+    <t>LP - LARGO PLAZO</t>
+  </si>
+  <si>
+    <t>TS - TASA FIJA</t>
+  </si>
+  <si>
+    <t>COL - COLOMBIA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_([$$-240A]\ * #,##0_);_([$$-240A]\ * \(#,##0\);_([$$-240A]\ * &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,6 +114,18 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF31333F"/>
+      <name val="Source Sans Pro"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -138,19 +155,15 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -159,8 +172,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="10"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -171,14 +182,47 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="3" xr:uid="{33BB4CAC-BC3B-48C7-AB1C-65368B836974}"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="19">
     <dxf>
       <fill>
         <patternFill>
@@ -211,6 +255,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -235,6 +286,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -248,6 +306,47 @@
       <fill>
         <patternFill>
           <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.89996032593768116"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.89996032593768116"/>
         </patternFill>
       </fill>
     </dxf>
@@ -292,10 +391,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>83795</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>90145</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>233332</xdr:rowOff>
+      <xdr:rowOff>296832</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1013147" cy="967302"/>
     <xdr:pic>
@@ -303,7 +402,7 @@
         <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08A5E5E7-F777-45E2-89ED-6C9B4D48AE4F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -312,73 +411,26 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1607795" y="1446182"/>
+          <a:off x="883895" y="1528732"/>
           <a:ext cx="1013147" cy="967302"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>565150</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>27538</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>614058</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>57317</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E8523B4-A962-4BCC-B20D-522B9ED6360F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12465050" y="922888"/>
-          <a:ext cx="7668908" cy="1001329"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -678,18 +730,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B873E46F-AFD6-424E-BF63-77550740A8C1}">
-  <dimension ref="A1:AK11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AJ11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.36328125" customWidth="1"/>
-    <col min="2" max="2" width="11.453125" customWidth="1"/>
-    <col min="3" max="3" width="16.1796875" customWidth="1"/>
+    <col min="1" max="1" width="12.26953125" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" customWidth="1"/>
+    <col min="3" max="3" width="17.90625" customWidth="1"/>
     <col min="4" max="4" width="20.08984375" customWidth="1"/>
     <col min="5" max="5" width="20.54296875" customWidth="1"/>
     <col min="6" max="6" width="18.81640625" customWidth="1"/>
@@ -698,454 +750,480 @@
     <col min="9" max="9" width="15.54296875" customWidth="1"/>
     <col min="10" max="10" width="14.26953125" customWidth="1"/>
     <col min="11" max="11" width="15.36328125" customWidth="1"/>
+    <col min="17" max="17" width="14" customWidth="1"/>
+    <col min="18" max="18" width="13.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
       <c r="J1" s="2"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="4"/>
-      <c r="AC1" s="4"/>
-      <c r="AD1" s="4"/>
-      <c r="AE1" s="4"/>
-      <c r="AF1" s="4"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="1"/>
       <c r="AG1" s="1"/>
-      <c r="AH1" s="1"/>
     </row>
-    <row r="2" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="1"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="5"/>
-      <c r="AA2" s="5"/>
-      <c r="AB2" s="5"/>
-      <c r="AC2" s="5"/>
-      <c r="AD2" s="5"/>
-      <c r="AE2" s="5"/>
-      <c r="AF2" s="5"/>
-      <c r="AG2" s="5"/>
-      <c r="AH2" s="5"/>
-      <c r="AI2" s="5"/>
-      <c r="AJ2" s="5"/>
-      <c r="AK2" s="5"/>
+    <row r="2" spans="1:36" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="3"/>
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="3"/>
+      <c r="AJ2" s="3"/>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
       <c r="J3" s="2"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
-      <c r="AA3" s="4"/>
-      <c r="AB3" s="4"/>
-      <c r="AC3" s="4"/>
-      <c r="AD3" s="4"/>
-      <c r="AE3" s="4"/>
-      <c r="AF3" s="4"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="1"/>
       <c r="AG3" s="1"/>
-      <c r="AH3" s="1"/>
     </row>
-    <row r="4" spans="1:37" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:36" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="17" t="s">
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="U4" s="17"/>
-      <c r="V4" s="17"/>
-      <c r="W4" s="17"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="4"/>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="4"/>
-      <c r="AD4" s="4"/>
-      <c r="AE4" s="4"/>
-      <c r="AF4" s="4"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="1"/>
       <c r="AG4" s="1"/>
-      <c r="AH4" s="1"/>
     </row>
-    <row r="5" spans="1:37" ht="25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:36" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="15"/>
-      <c r="W5" s="15"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="4"/>
-      <c r="AA5" s="4"/>
-      <c r="AB5" s="4"/>
-      <c r="AC5" s="4"/>
-      <c r="AD5" s="4"/>
-      <c r="AE5" s="4"/>
-      <c r="AF5" s="4"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="23"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="1"/>
       <c r="AG5" s="1"/>
-      <c r="AH5" s="1"/>
     </row>
-    <row r="6" spans="1:37" ht="22.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:36" ht="30.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4"/>
-      <c r="AA6" s="4"/>
-      <c r="AB6" s="4"/>
-      <c r="AC6" s="4"/>
-      <c r="AD6" s="4"/>
-      <c r="AE6" s="4"/>
-      <c r="AF6" s="4"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="1"/>
       <c r="AG6" s="1"/>
-      <c r="AH6" s="1"/>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:36" ht="26" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
-      <c r="AA7" s="4"/>
-      <c r="AB7" s="4"/>
-      <c r="AC7" s="4"/>
-      <c r="AD7" s="4"/>
-      <c r="AE7" s="4"/>
-      <c r="AF7" s="4"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
-      <c r="AH7" s="1"/>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:36" ht="36.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
-      <c r="AA8" s="4"/>
-      <c r="AB8" s="4"/>
-      <c r="AC8" s="4"/>
-      <c r="AD8" s="4"/>
-      <c r="AE8" s="4"/>
-      <c r="AF8" s="4"/>
-      <c r="AG8" s="1"/>
-      <c r="AH8" s="1"/>
-    </row>
-    <row r="9" spans="1:37" ht="25" x14ac:dyDescent="0.35">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="16" t="s">
+      <c r="C8" s="10"/>
+      <c r="D8" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="S8" s="25"/>
+      <c r="T8" s="27"/>
+      <c r="U8" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="1"/>
+    </row>
+    <row r="9" spans="1:36" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="4"/>
-      <c r="AA9" s="4"/>
-      <c r="AB9" s="4"/>
-      <c r="AC9" s="4"/>
-      <c r="AD9" s="4"/>
-      <c r="AE9" s="4"/>
-      <c r="AF9" s="4"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="1"/>
       <c r="AG9" s="1"/>
-      <c r="AH9" s="1"/>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="4"/>
-      <c r="Z10" s="4"/>
-      <c r="AA10" s="4"/>
-      <c r="AB10" s="4"/>
-      <c r="AC10" s="4"/>
-      <c r="AD10" s="4"/>
-      <c r="AE10" s="4"/>
-      <c r="AF10" s="4"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="1"/>
       <c r="AG10" s="1"/>
-      <c r="AH10" s="1"/>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="F11" s="12"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="14"/>
-      <c r="V11" s="14"/>
-      <c r="W11" s="14"/>
-      <c r="X11" s="14"/>
-      <c r="Y11" s="14"/>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="E11" s="16"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="T4:W4"/>
-  </mergeCells>
-  <conditionalFormatting sqref="A9:B9 D9:AH9 A10:AH10 A1:AH3 A5:AH8 X4:AH4 A4:T4">
-    <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="bancolombia">
+  <conditionalFormatting sqref="A1:AH3 A9:B9 A10 X4:AH4 W5:AH5 W7:AH7 V6:AH6 A4:T4 Q5:Q8 Q8:T8 V8:AH8 A5:N5 A6:T7 A8:O8 D9:AH10">
+    <cfRule type="containsText" dxfId="18" priority="19" operator="containsText" text="bancolombia">
       <formula>NOT(ISERROR(SEARCH("bancolombia",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:AH3 X4:AH4 A4:T4 A5:AH11">
-    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="bancolombia">
+  <conditionalFormatting sqref="A1:AH3 X4:AH4 W5:AH5 W7:AH7 V6:AH6 A4:T4 Q5:Q8 Q8:T8 V8:AH8 A9:AH9 A5:N5 A6:T7 A8:O8 A11:AH11 A10 D10:AH10">
+    <cfRule type="containsText" dxfId="17" priority="17" operator="containsText" text="bancolombia">
       <formula>NOT(ISERROR(SEARCH("bancolombia",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="T.P comparable">
+    <cfRule type="containsText" dxfId="16" priority="18" operator="containsText" text="T.P comparable">
       <formula>NOT(ISERROR(SEARCH("T.P comparable",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI2">
-    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="bancolombia">
+    <cfRule type="containsText" dxfId="15" priority="14" operator="containsText" text="bancolombia">
       <formula>NOT(ISERROR(SEARCH("bancolombia",AI2)))</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI2">
-    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="bancolombia">
+    <cfRule type="containsText" dxfId="14" priority="15" operator="containsText" text="T.P comparable">
+      <formula>NOT(ISERROR(SEARCH("T.P comparable",AI2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="16" operator="containsText" text="bancolombia">
       <formula>NOT(ISERROR(SEARCH("bancolombia",AI2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="T.P comparable">
-      <formula>NOT(ISERROR(SEARCH("T.P comparable",AI2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ2">
-    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="bancolombia">
+    <cfRule type="containsText" dxfId="12" priority="11" operator="containsText" text="bancolombia">
       <formula>NOT(ISERROR(SEARCH("bancolombia",AJ2)))</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ2">
-    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="bancolombia">
+    <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="T.P comparable">
+      <formula>NOT(ISERROR(SEARCH("T.P comparable",AJ2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="13" operator="containsText" text="bancolombia">
       <formula>NOT(ISERROR(SEARCH("bancolombia",AJ2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="T.P comparable">
-      <formula>NOT(ISERROR(SEARCH("T.P comparable",AJ2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK2">
+    <cfRule type="containsText" dxfId="9" priority="8" operator="containsText" text="bancolombia">
+      <formula>NOT(ISERROR(SEARCH("bancolombia",AK2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="T.P comparable">
+      <formula>NOT(ISERROR(SEARCH("T.P comparable",AK2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="10" operator="containsText" text="bancolombia">
+      <formula>NOT(ISERROR(SEARCH("bancolombia",AK2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W4">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="bancolombia">
+      <formula>NOT(ISERROR(SEARCH("bancolombia",W4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W4">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="bancolombia">
+      <formula>NOT(ISERROR(SEARCH("bancolombia",W4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="T.P comparable">
+      <formula>NOT(ISERROR(SEARCH("T.P comparable",W4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="bancolombia">
+      <formula>NOT(ISERROR(SEARCH("bancolombia",C9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U6:U8">
     <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="bancolombia">
-      <formula>NOT(ISERROR(SEARCH("bancolombia",AK2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("bancolombia",U6)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK2">
+  <conditionalFormatting sqref="U6:U8">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="bancolombia">
-      <formula>NOT(ISERROR(SEARCH("bancolombia",AK2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("bancolombia",U6)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="T.P comparable">
-      <formula>NOT(ISERROR(SEARCH("T.P comparable",AK2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("T.P comparable",U6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
